--- a/src/test/resources/TestSuite2.xlsx
+++ b/src/test/resources/TestSuite2.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
-    <sheet name="GoogleSearch_Hello" sheetId="7" r:id="rId2"/>
-    <sheet name="YahooSearch_Yummy" sheetId="8" r:id="rId3"/>
+    <sheet name="Google" sheetId="7" r:id="rId2"/>
+    <sheet name="Yahoo" sheetId="8" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="Keyword">#REF!</definedName>
@@ -48,18 +48,6 @@
     <t>openBrowser</t>
   </si>
   <si>
-    <t>GoogleSearch_Hello</t>
-  </si>
-  <si>
-    <t>YahooSearch_Yummy</t>
-  </si>
-  <si>
-    <t>Searching hello</t>
-  </si>
-  <si>
-    <t>Searching yummy</t>
-  </si>
-  <si>
     <t>Result Status</t>
   </si>
   <si>
@@ -70,6 +58,18 @@
   </si>
   <si>
     <t>n</t>
+  </si>
+  <si>
+    <t>Google</t>
+  </si>
+  <si>
+    <t>Yahoo</t>
+  </si>
+  <si>
+    <t>AAAAA</t>
+  </si>
+  <si>
+    <t>BBBBB</t>
   </si>
 </sst>
 </file>
@@ -495,7 +495,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -518,24 +518,24 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>10</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -555,8 +555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -583,7 +583,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -595,7 +595,7 @@
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E2" s="10"/>
     </row>
@@ -617,8 +617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -645,7 +645,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -657,7 +657,7 @@
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E2" s="10"/>
     </row>

--- a/src/test/resources/TestSuite2.xlsx
+++ b/src/test/resources/TestSuite2.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="18">
   <si>
     <t>TCID</t>
   </si>
@@ -70,6 +70,12 @@
   </si>
   <si>
     <t>BBBBB</t>
+  </si>
+  <si>
+    <t>Closing the Browser</t>
+  </si>
+  <si>
+    <t>closeBroswer</t>
   </si>
 </sst>
 </file>
@@ -553,10 +559,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -598,6 +604,17 @@
         <v>9</v>
       </c>
       <c r="E2" s="10"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
     </row>
   </sheetData>
   <dataValidations count="2">
@@ -615,10 +632,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="A3" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -626,7 +643,7 @@
     <col min="1" max="1" width="26" style="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.85546875" style="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="34.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22" style="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.42578125" style="8" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="15.7109375" style="8"/>
   </cols>
@@ -660,6 +677,17 @@
         <v>9</v>
       </c>
       <c r="E2" s="10"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
     </row>
   </sheetData>
   <dataValidations count="2">
